--- a/example.xlsx
+++ b/example.xlsx
@@ -427,23 +427,36 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" ht="409.5" customHeight="1">
+    <row r="1" ht="114" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Can you please provide me result of 1+2 ? </t>
+          <t>input</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>yiybeibfapie</t>
+          <t>output</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suggest a business description for FACTS_CALL table present in pharmaceutical domain 
+</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>test business</t>
         </is>
       </c>
     </row>

--- a/example.xlsx
+++ b/example.xlsx
@@ -450,8 +450,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Suggest a business description for FACTS_CALL table present in pharmaceutical domain 
-</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">

--- a/example.xlsx
+++ b/example.xlsx
@@ -450,7 +450,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>hi</t>
+          <t>hello</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">

--- a/example.xlsx
+++ b/example.xlsx
@@ -450,7 +450,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>hello</t>
+          <t>HI</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">

--- a/example.xlsx
+++ b/example.xlsx
@@ -450,14 +450,10 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HI</t>
+          <t>huy</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>test business</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/example.xlsx
+++ b/example.xlsx
@@ -430,7 +430,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -450,10 +450,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>huy</t>
+          <t>hu</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>technical test765</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/example.xlsx
+++ b/example.xlsx
@@ -448,11 +448,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>hu</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
           <t>technical test765</t>

--- a/example.xlsx
+++ b/example.xlsx
@@ -448,7 +448,11 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>technical test765</t>

--- a/example.xlsx
+++ b/example.xlsx
@@ -450,7 +450,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Hi</t>
+          <t>Can you please provide me the sql queries to check for missing values in the table?</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
